--- a/Refined_Program/picker_suggestions_modified/rep2_Inh_edited.xlsx
+++ b/Refined_Program/picker_suggestions_modified/rep2_Inh_edited.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephanie/Documents/GitHub/Calucium-Analysis/Refined_Program/picker_suggestions_modified/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEF30740-859A-2C4C-86B1-B64376D9843A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A90146-9CE7-B247-9C2A-B72D05F8DED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14940" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15680" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="73">
   <si>
     <t>Treatment</t>
   </si>
@@ -62,9 +75,6 @@
   </si>
   <si>
     <t>Cell 1</t>
-  </si>
-  <si>
-    <t>TRUE</t>
   </si>
   <si>
     <t>Cell 2</t>
@@ -231,12 +241,24 @@
   <si>
     <t>Scale is extreme, Custom</t>
   </si>
+  <si>
+    <t>Only has the small initial peak but not a typical first phase respnse. Same issue repeated in this islet</t>
+  </si>
+  <si>
+    <t>Scale is exteme</t>
+  </si>
+  <si>
+    <t>Extreme scale</t>
+  </si>
+  <si>
+    <t>custom, Scale is exteme</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +275,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -308,8 +338,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B74" zoomScale="116" workbookViewId="0">
-      <selection activeCell="M147" sqref="M147"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="116" workbookViewId="0">
+      <selection activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -701,17 +731,17 @@
       <c r="J2">
         <v>1385.650000000006</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
       <c r="L2">
         <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -734,7 +764,7 @@
         <v>742.03499999999474</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>742.03499999999474</v>
@@ -745,14 +775,14 @@
       <c r="J3">
         <v>1393.4200000000069</v>
       </c>
-      <c r="K3" t="s">
-        <v>14</v>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -775,7 +805,7 @@
         <v>736.8549999999949</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>736.8549999999949</v>
@@ -786,8 +816,8 @@
       <c r="J4">
         <v>1458.1700000000101</v>
       </c>
-      <c r="K4" t="s">
-        <v>14</v>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -813,7 +843,7 @@
         <v>760</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>784.76999999999339</v>
@@ -824,14 +854,14 @@
       <c r="J5">
         <v>1112.4049999999911</v>
       </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -854,7 +884,7 @@
         <v>760</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>780.88499999999351</v>
@@ -865,14 +895,14 @@
       <c r="J6">
         <v>1103.3399999999899</v>
       </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -895,7 +925,7 @@
         <v>780</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <v>786.06499999999335</v>
@@ -906,14 +936,14 @@
       <c r="J7">
         <v>1064.489999999988</v>
       </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="4">
-        <v>2</v>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -936,7 +966,7 @@
         <v>770</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>797.71999999999298</v>
@@ -947,14 +977,14 @@
       <c r="J8">
         <v>1094.2749999999901</v>
       </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>2</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -977,7 +1007,7 @@
         <v>764.04999999999404</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9">
         <v>562.03000000000043</v>
@@ -988,10 +1018,10 @@
       <c r="J9">
         <v>1349.390000000004</v>
       </c>
-      <c r="K9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>1</v>
       </c>
     </row>
@@ -1015,7 +1045,7 @@
         <v>760</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10">
         <v>564.62000000000035</v>
@@ -1023,14 +1053,14 @@
       <c r="I10">
         <v>1503.4950000000131</v>
       </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>3</v>
       </c>
       <c r="M10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -1050,10 +1080,10 @@
         <v>2760</v>
       </c>
       <c r="F11">
-        <v>749.80499999999449</v>
+        <v>720</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11">
         <v>749.80499999999449</v>
@@ -1064,11 +1094,14 @@
       <c r="J11">
         <v>1140.894999999992</v>
       </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="4">
-        <v>2</v>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -1088,10 +1121,10 @@
         <v>2760</v>
       </c>
       <c r="F12" s="3">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H12">
         <v>808.07999999999265</v>
@@ -1102,10 +1135,10 @@
       <c r="J12">
         <v>1099.4549999999899</v>
       </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>3</v>
       </c>
     </row>
@@ -1129,7 +1162,7 @@
         <v>680</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13">
         <v>547.78500000000088</v>
@@ -1140,14 +1173,14 @@
       <c r="J13">
         <v>826.20999999999208</v>
       </c>
-      <c r="K13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="4">
-        <v>1</v>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
       </c>
       <c r="M13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -1167,10 +1200,10 @@
         <v>2760</v>
       </c>
       <c r="F14" s="3">
-        <v>730</v>
+        <v>700</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14">
         <v>551.67000000000075</v>
@@ -1181,14 +1214,14 @@
       <c r="J14">
         <v>1197.8749999999959</v>
       </c>
-      <c r="K14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="4">
-        <v>1</v>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
       </c>
       <c r="M14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -1208,10 +1241,10 @@
         <v>2760</v>
       </c>
       <c r="F15">
-        <v>687.64499999999646</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
+        <v>1100</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="H15">
         <v>551.67000000000075</v>
@@ -1222,11 +1255,14 @@
       <c r="J15">
         <v>1475.005000000011</v>
       </c>
-      <c r="K15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="4">
-        <v>1</v>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -1249,7 +1285,7 @@
         <v>780</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16">
         <v>843.04499999999155</v>
@@ -1260,14 +1296,14 @@
       <c r="J16">
         <v>1240.6099999999981</v>
       </c>
-      <c r="K16" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="4">
-        <v>2</v>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
       </c>
       <c r="M16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1287,10 +1323,10 @@
         <v>2760</v>
       </c>
       <c r="F17">
-        <v>797.71999999999298</v>
+        <v>760</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H17">
         <v>573.68500000000006</v>
@@ -1301,11 +1337,14 @@
       <c r="J17">
         <v>894.84499999998991</v>
       </c>
-      <c r="K17" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="4">
-        <v>2</v>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1325,10 +1364,10 @@
         <v>2760</v>
       </c>
       <c r="F18" s="3">
-        <v>1050</v>
+        <v>780</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18">
         <v>1261.329999999999</v>
@@ -1339,14 +1378,14 @@
       <c r="J18">
         <v>1605.8000000000191</v>
       </c>
-      <c r="K18" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="4">
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>3</v>
       </c>
       <c r="M18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1366,10 +1405,10 @@
         <v>2760</v>
       </c>
       <c r="F19">
-        <v>726.49499999999523</v>
+        <v>715</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19">
         <v>726.49499999999523</v>
@@ -1380,11 +1419,14 @@
       <c r="J19">
         <v>1072.2599999999891</v>
       </c>
-      <c r="K19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="4">
-        <v>1</v>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1404,10 +1446,10 @@
         <v>2760</v>
       </c>
       <c r="F20" s="3">
-        <v>820</v>
+        <v>770</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>564.62000000000035</v>
@@ -1418,14 +1460,14 @@
       <c r="J20">
         <v>1295.0000000000009</v>
       </c>
-      <c r="K20" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="4">
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20">
         <v>3</v>
       </c>
       <c r="M20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -1448,7 +1490,7 @@
         <v>758.86999999999421</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>571.09500000000014</v>
@@ -1459,11 +1501,11 @@
       <c r="J21">
         <v>1547.5250000000151</v>
       </c>
-      <c r="K21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="4">
-        <v>1</v>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1486,7 +1528,7 @@
         <v>874.12499999999056</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H22">
         <v>874.12499999999056</v>
@@ -1497,10 +1539,10 @@
       <c r="J22">
         <v>1525.5100000000141</v>
       </c>
-      <c r="K22" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" s="4">
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22">
         <v>2</v>
       </c>
     </row>
@@ -1524,7 +1566,7 @@
         <v>790</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23">
         <v>870.23999999999069</v>
@@ -1535,11 +1577,11 @@
       <c r="J23">
         <v>1148.6649999999929</v>
       </c>
-      <c r="K23" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="4">
-        <v>2</v>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1562,7 +1604,7 @@
         <v>941.46499999998844</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H24">
         <v>571.09500000000014</v>
@@ -1573,10 +1615,10 @@
       <c r="J24">
         <v>1160.319999999994</v>
       </c>
-      <c r="K24" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" s="4">
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>3</v>
       </c>
     </row>
@@ -1597,10 +1639,10 @@
         <v>2760</v>
       </c>
       <c r="F25" s="3">
-        <v>715</v>
+        <v>1160</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25">
         <v>573.68500000000006</v>
@@ -1611,14 +1653,14 @@
       <c r="J25">
         <v>1477.5950000000109</v>
       </c>
-      <c r="K25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="4">
-        <v>1</v>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
       </c>
       <c r="M25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1637,11 +1679,11 @@
       <c r="E26">
         <v>2760</v>
       </c>
-      <c r="F26" s="3">
-        <v>800</v>
+      <c r="F26">
+        <v>770</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H26">
         <v>813.25999999999249</v>
@@ -1652,14 +1694,14 @@
       <c r="J26">
         <v>1402.4850000000069</v>
       </c>
-      <c r="K26" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="4">
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26">
         <v>2</v>
       </c>
       <c r="M26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -1679,10 +1721,10 @@
         <v>2760</v>
       </c>
       <c r="F27" s="3">
-        <v>850</v>
+        <v>770</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H27">
         <v>574.98</v>
@@ -1693,14 +1735,14 @@
       <c r="J27">
         <v>1030.8199999999861</v>
       </c>
-      <c r="K27" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="4">
-        <v>2</v>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
       </c>
       <c r="M27" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -1723,7 +1765,7 @@
         <v>770</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H28">
         <v>569.80000000000018</v>
@@ -1734,14 +1776,14 @@
       <c r="J28">
         <v>1424.500000000008</v>
       </c>
-      <c r="K28" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="4">
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>2</v>
       </c>
       <c r="M28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -1760,11 +1802,11 @@
       <c r="E29">
         <v>2760</v>
       </c>
-      <c r="F29" s="3">
-        <v>670</v>
-      </c>
-      <c r="G29" t="s">
-        <v>41</v>
+      <c r="F29">
+        <v>1086.504999999989</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="H29">
         <v>563.32500000000039</v>
@@ -1775,14 +1817,11 @@
       <c r="J29">
         <v>1086.504999999989</v>
       </c>
-      <c r="K29" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="4">
-        <v>2</v>
-      </c>
-      <c r="M29" t="s">
-        <v>62</v>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -1805,7 +1844,7 @@
         <v>776.99999999999363</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H30">
         <v>776.99999999999363</v>
@@ -1816,10 +1855,10 @@
       <c r="J30">
         <v>1475.005000000011</v>
       </c>
-      <c r="K30" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="4">
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>1</v>
       </c>
     </row>
@@ -1839,11 +1878,11 @@
       <c r="E31">
         <v>2760</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>777</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H31">
         <v>776.99999999999363</v>
@@ -1854,10 +1893,10 @@
       <c r="J31">
         <v>1475.005000000011</v>
       </c>
-      <c r="K31" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="4">
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>1</v>
       </c>
     </row>
@@ -1866,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>600</v>
@@ -1877,8 +1916,8 @@
       <c r="E32">
         <v>2760</v>
       </c>
-      <c r="F32" s="3">
-        <v>740</v>
+      <c r="F32">
+        <v>1125</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
@@ -1892,14 +1931,14 @@
       <c r="J32">
         <v>1445.22000000001</v>
       </c>
-      <c r="K32" t="s">
-        <v>14</v>
-      </c>
-      <c r="L32" s="4">
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32">
         <v>2</v>
       </c>
       <c r="M32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -1907,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33">
         <v>600</v>
@@ -1918,11 +1957,11 @@
       <c r="E33">
         <v>2760</v>
       </c>
-      <c r="F33" s="3">
-        <v>730</v>
+      <c r="F33">
+        <v>1150</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H33">
         <v>1162.909999999993</v>
@@ -1930,14 +1969,15 @@
       <c r="I33">
         <v>1591.555000000018</v>
       </c>
-      <c r="K33" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" s="4">
+      <c r="K33" t="str">
+        <f t="shared" ref="K33:K57" si="0">IF(L33&lt;3, "True", "False")</f>
+        <v>True</v>
+      </c>
+      <c r="L33">
         <v>2</v>
       </c>
       <c r="M33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -1945,7 +1985,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>600</v>
@@ -1956,11 +1996,11 @@
       <c r="E34">
         <v>2760</v>
       </c>
-      <c r="F34" s="3">
-        <v>730</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
+      <c r="F34">
+        <v>800</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="H34">
         <v>1485.3650000000121</v>
@@ -1968,14 +2008,15 @@
       <c r="I34">
         <v>1600.6200000000181</v>
       </c>
-      <c r="K34" t="s">
-        <v>14</v>
-      </c>
-      <c r="L34" s="4">
-        <v>2</v>
+      <c r="K34" t="str">
+        <f t="shared" si="0"/>
+        <v>False</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
       </c>
       <c r="M34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -1983,7 +2024,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35">
         <v>600</v>
@@ -1994,11 +2035,11 @@
       <c r="E35">
         <v>2760</v>
       </c>
-      <c r="F35" s="3">
-        <v>730</v>
+      <c r="F35">
+        <v>1051.5399999999879</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H35">
         <v>1051.5399999999879</v>
@@ -2009,14 +2050,15 @@
       <c r="J35">
         <v>1599.325000000018</v>
       </c>
-      <c r="K35" t="s">
-        <v>14</v>
-      </c>
-      <c r="L35" s="4">
+      <c r="K35" t="str">
+        <f t="shared" si="0"/>
+        <v>True</v>
+      </c>
+      <c r="L35">
         <v>2</v>
       </c>
       <c r="M35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2024,7 +2066,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36">
         <v>600</v>
@@ -2036,10 +2078,10 @@
         <v>2760</v>
       </c>
       <c r="F36" s="3">
-        <v>730</v>
+        <v>1000</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H36">
         <v>1092.97999999999</v>
@@ -2047,14 +2089,14 @@
       <c r="I36">
         <v>1566.950000000016</v>
       </c>
-      <c r="K36" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" s="4">
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36">
         <v>2</v>
       </c>
       <c r="M36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -2062,7 +2104,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37">
         <v>600</v>
@@ -2073,11 +2115,11 @@
       <c r="E37">
         <v>2760</v>
       </c>
-      <c r="F37" s="3">
-        <v>730</v>
+      <c r="F37">
+        <v>1092.97999999999</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H37">
         <v>1092.97999999999</v>
@@ -2088,14 +2130,12 @@
       <c r="J37">
         <v>1509.970000000013</v>
       </c>
-      <c r="K37" t="s">
-        <v>14</v>
-      </c>
-      <c r="L37" s="4">
-        <v>2</v>
-      </c>
-      <c r="M37" t="s">
-        <v>62</v>
+      <c r="K37" t="str">
+        <f t="shared" si="0"/>
+        <v>True</v>
+      </c>
+      <c r="L37">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -2103,7 +2143,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38">
         <v>600</v>
@@ -2114,11 +2154,11 @@
       <c r="E38">
         <v>2760</v>
       </c>
-      <c r="F38" s="3">
-        <v>730</v>
+      <c r="F38">
+        <v>1170.6799999999939</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H38">
         <v>1170.6799999999939</v>
@@ -2126,14 +2166,14 @@
       <c r="I38">
         <v>1582.4900000000171</v>
       </c>
-      <c r="K38" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" s="4">
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>2</v>
       </c>
       <c r="M38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -2141,7 +2181,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39">
         <v>600</v>
@@ -2153,10 +2193,10 @@
         <v>2760</v>
       </c>
       <c r="F39" s="3">
-        <v>730</v>
+        <v>1090</v>
       </c>
       <c r="G39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H39">
         <v>1465.940000000011</v>
@@ -2164,14 +2204,14 @@
       <c r="I39">
         <v>1599.325000000018</v>
       </c>
-      <c r="K39" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" s="4">
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39">
         <v>2</v>
       </c>
       <c r="M39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -2179,7 +2219,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40">
         <v>600</v>
@@ -2190,11 +2230,11 @@
       <c r="E40">
         <v>2760</v>
       </c>
-      <c r="F40" s="3">
-        <v>730</v>
+      <c r="F40">
+        <v>1146.074999999993</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H40">
         <v>1146.074999999993</v>
@@ -2202,14 +2242,11 @@
       <c r="I40">
         <v>1607.0950000000189</v>
       </c>
-      <c r="K40" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" s="4">
-        <v>2</v>
-      </c>
-      <c r="M40" t="s">
-        <v>62</v>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -2217,7 +2254,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <v>600</v>
@@ -2229,10 +2266,10 @@
         <v>2760</v>
       </c>
       <c r="F41" s="3">
-        <v>730</v>
+        <v>1050</v>
       </c>
       <c r="G41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H41">
         <v>1073.5549999999889</v>
@@ -2243,14 +2280,14 @@
       <c r="J41">
         <v>1578.6050000000171</v>
       </c>
-      <c r="K41" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41" s="4">
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41">
         <v>2</v>
       </c>
       <c r="M41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -2258,7 +2295,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42">
         <v>600</v>
@@ -2269,11 +2306,11 @@
       <c r="E42">
         <v>2760</v>
       </c>
-      <c r="F42" s="3">
-        <v>730</v>
+      <c r="F42">
+        <v>1121.4699999999909</v>
       </c>
       <c r="G42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H42">
         <v>878.00999999999044</v>
@@ -2284,14 +2321,15 @@
       <c r="J42">
         <v>1610.9800000000189</v>
       </c>
-      <c r="K42" t="s">
-        <v>14</v>
-      </c>
-      <c r="L42" s="4">
-        <v>2</v>
+      <c r="K42" t="str">
+        <f t="shared" si="0"/>
+        <v>False</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
       </c>
       <c r="M42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -2299,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43">
         <v>600</v>
@@ -2310,11 +2348,11 @@
       <c r="E43">
         <v>2760</v>
       </c>
-      <c r="F43" s="3">
-        <v>730</v>
+      <c r="F43">
+        <v>1095.5699999999899</v>
       </c>
       <c r="G43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H43">
         <v>893.54999999998995</v>
@@ -2325,14 +2363,14 @@
       <c r="J43">
         <v>1468.5300000000109</v>
       </c>
-      <c r="K43" t="s">
-        <v>14</v>
-      </c>
-      <c r="L43" s="4">
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43">
         <v>2</v>
       </c>
       <c r="M43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -2340,7 +2378,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44">
         <v>600</v>
@@ -2351,11 +2389,11 @@
       <c r="E44">
         <v>2760</v>
       </c>
-      <c r="F44" s="3">
-        <v>730</v>
+      <c r="F44">
+        <v>1089.09499999999</v>
       </c>
       <c r="G44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H44">
         <v>896.13999999998987</v>
@@ -2366,14 +2404,15 @@
       <c r="J44">
         <v>1487.955000000012</v>
       </c>
-      <c r="K44" t="s">
-        <v>14</v>
-      </c>
-      <c r="L44" s="4">
+      <c r="K44" t="str">
+        <f t="shared" si="0"/>
+        <v>True</v>
+      </c>
+      <c r="L44">
         <v>2</v>
       </c>
       <c r="M44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -2381,7 +2420,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45">
         <v>600</v>
@@ -2392,11 +2431,11 @@
       <c r="E45">
         <v>2760</v>
       </c>
-      <c r="F45" s="3">
-        <v>730</v>
+      <c r="F45">
+        <v>852.10999999999126</v>
       </c>
       <c r="G45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H45">
         <v>852.10999999999126</v>
@@ -2404,14 +2443,12 @@
       <c r="I45">
         <v>1620.0450000000189</v>
       </c>
-      <c r="K45" t="s">
-        <v>14</v>
-      </c>
-      <c r="L45" s="4">
-        <v>2</v>
-      </c>
-      <c r="M45" t="s">
-        <v>62</v>
+      <c r="K45" t="str">
+        <f t="shared" si="0"/>
+        <v>False</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -2419,7 +2456,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46">
         <v>600</v>
@@ -2431,10 +2468,10 @@
         <v>2760</v>
       </c>
       <c r="F46" s="3">
-        <v>730</v>
+        <v>1000</v>
       </c>
       <c r="G46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H46">
         <v>1013.984999999986</v>
@@ -2445,14 +2482,15 @@
       <c r="J46">
         <v>1500.9050000000129</v>
       </c>
-      <c r="K46" t="s">
-        <v>14</v>
-      </c>
-      <c r="L46" s="4">
-        <v>2</v>
+      <c r="K46" t="str">
+        <f>IF(L46&lt;3, "True", "False")</f>
+        <v>False</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
       </c>
       <c r="M46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -2460,7 +2498,7 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47">
         <v>600</v>
@@ -2471,11 +2509,11 @@
       <c r="E47">
         <v>2760</v>
       </c>
-      <c r="F47" s="3">
-        <v>730</v>
+      <c r="F47">
+        <v>1006.214999999986</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H47">
         <v>699.29999999999609</v>
@@ -2486,14 +2524,11 @@
       <c r="J47">
         <v>1500.9050000000129</v>
       </c>
-      <c r="K47" t="s">
-        <v>14</v>
-      </c>
-      <c r="L47" s="4">
-        <v>2</v>
-      </c>
-      <c r="M47" t="s">
-        <v>62</v>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -2501,7 +2536,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48">
         <v>600</v>
@@ -2512,11 +2547,11 @@
       <c r="E48">
         <v>2760</v>
       </c>
-      <c r="F48" s="3">
-        <v>730</v>
+      <c r="F48">
+        <v>1026.9349999999861</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>1026.9349999999861</v>
@@ -2527,14 +2562,11 @@
       <c r="J48">
         <v>1598.0300000000179</v>
       </c>
-      <c r="K48" t="s">
-        <v>14</v>
-      </c>
-      <c r="L48" s="4">
-        <v>2</v>
-      </c>
-      <c r="M48" t="s">
-        <v>62</v>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -2542,7 +2574,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49">
         <v>600</v>
@@ -2553,11 +2585,11 @@
       <c r="E49">
         <v>2760</v>
       </c>
-      <c r="F49" s="3">
-        <v>730</v>
+      <c r="F49">
+        <v>934.98999999998864</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>934.98999999998864</v>
@@ -2565,14 +2597,15 @@
       <c r="I49">
         <v>1012.689999999986</v>
       </c>
-      <c r="K49" t="s">
-        <v>14</v>
-      </c>
-      <c r="L49" s="4">
-        <v>2</v>
+      <c r="K49" t="str">
+        <f t="shared" si="0"/>
+        <v>False</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
       </c>
       <c r="M49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -2580,7 +2613,7 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50">
         <v>600</v>
@@ -2591,11 +2624,11 @@
       <c r="E50">
         <v>2760</v>
       </c>
-      <c r="F50" s="3">
-        <v>730</v>
+      <c r="F50">
+        <v>1122.7649999999919</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>690.23499999999638</v>
@@ -2606,14 +2639,15 @@
       <c r="J50">
         <v>1551.410000000016</v>
       </c>
-      <c r="K50" t="s">
-        <v>14</v>
-      </c>
-      <c r="L50" s="4">
-        <v>2</v>
+      <c r="K50" t="str">
+        <f t="shared" si="0"/>
+        <v>False</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
       </c>
       <c r="M50" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -2621,7 +2655,7 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51">
         <v>600</v>
@@ -2632,11 +2666,11 @@
       <c r="E51">
         <v>2760</v>
       </c>
-      <c r="F51" s="3">
-        <v>730</v>
+      <c r="F51">
+        <v>1040</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>1152.5499999999929</v>
@@ -2644,14 +2678,15 @@
       <c r="I51">
         <v>1581.195000000017</v>
       </c>
-      <c r="K51" t="s">
-        <v>14</v>
-      </c>
-      <c r="L51" s="4">
-        <v>2</v>
+      <c r="K51" t="str">
+        <f t="shared" si="0"/>
+        <v>False</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
       </c>
       <c r="M51" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -2659,7 +2694,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52">
         <v>600</v>
@@ -2670,11 +2705,11 @@
       <c r="E52">
         <v>2760</v>
       </c>
-      <c r="F52" s="3">
-        <v>730</v>
+      <c r="F52">
+        <v>1050</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H52">
         <v>612.53499999999883</v>
@@ -2685,14 +2720,15 @@
       <c r="J52">
         <v>1522.9200000000139</v>
       </c>
-      <c r="K52" t="s">
-        <v>14</v>
-      </c>
-      <c r="L52" s="4">
-        <v>2</v>
+      <c r="K52" t="str">
+        <f t="shared" si="0"/>
+        <v>False</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
       </c>
       <c r="M52" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -2700,7 +2736,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C53">
         <v>600</v>
@@ -2712,10 +2748,10 @@
         <v>2760</v>
       </c>
       <c r="F53" s="3">
-        <v>730</v>
+        <v>1200</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>1292.410000000001</v>
@@ -2723,14 +2759,15 @@
       <c r="I53">
         <v>1456.87500000001</v>
       </c>
-      <c r="K53" t="s">
-        <v>14</v>
-      </c>
-      <c r="L53" s="4">
-        <v>2</v>
+      <c r="K53" t="str">
+        <f t="shared" si="0"/>
+        <v>False</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
       </c>
       <c r="M53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -2738,7 +2775,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54">
         <v>600</v>
@@ -2749,11 +2786,11 @@
       <c r="E54">
         <v>2760</v>
       </c>
-      <c r="F54" s="3">
-        <v>730</v>
+      <c r="F54">
+        <v>1087.799999999989</v>
       </c>
       <c r="G54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H54">
         <v>1087.799999999989</v>
@@ -2764,14 +2801,15 @@
       <c r="J54">
         <v>1452.99000000001</v>
       </c>
-      <c r="K54" t="s">
-        <v>14</v>
-      </c>
-      <c r="L54" s="4">
+      <c r="K54" t="str">
+        <f t="shared" si="0"/>
+        <v>True</v>
+      </c>
+      <c r="L54">
         <v>2</v>
       </c>
       <c r="M54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -2779,7 +2817,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55">
         <v>600</v>
@@ -2790,11 +2828,11 @@
       <c r="E55">
         <v>2760</v>
       </c>
-      <c r="F55" s="3">
-        <v>730</v>
+      <c r="F55">
+        <v>910</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H55">
         <v>857.2899999999911</v>
@@ -2802,14 +2840,12 @@
       <c r="I55">
         <v>1622.63500000002</v>
       </c>
-      <c r="K55" t="s">
-        <v>14</v>
-      </c>
-      <c r="L55" s="4">
-        <v>2</v>
-      </c>
-      <c r="M55" t="s">
-        <v>62</v>
+      <c r="K55" t="str">
+        <f t="shared" si="0"/>
+        <v>False</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -2817,7 +2853,7 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56">
         <v>600</v>
@@ -2828,11 +2864,11 @@
       <c r="E56">
         <v>2760</v>
       </c>
-      <c r="F56" s="3">
-        <v>730</v>
+      <c r="F56">
+        <v>1080</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>1112.4049999999911</v>
@@ -2840,14 +2876,11 @@
       <c r="I56">
         <v>1561.7700000000159</v>
       </c>
-      <c r="K56" t="s">
-        <v>14</v>
-      </c>
-      <c r="L56" s="4">
-        <v>2</v>
-      </c>
-      <c r="M56" t="s">
-        <v>62</v>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -2855,7 +2888,7 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C57">
         <v>600</v>
@@ -2866,11 +2899,11 @@
       <c r="E57">
         <v>2760</v>
       </c>
-      <c r="F57" s="3">
-        <v>730</v>
+      <c r="F57">
+        <v>1080</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H57">
         <v>1112.4049999999911</v>
@@ -2878,14 +2911,12 @@
       <c r="I57">
         <v>1561.7700000000159</v>
       </c>
-      <c r="K57" t="s">
-        <v>14</v>
-      </c>
-      <c r="L57" s="4">
-        <v>2</v>
-      </c>
-      <c r="M57" t="s">
-        <v>62</v>
+      <c r="K57" t="str">
+        <f t="shared" si="0"/>
+        <v>True</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
@@ -2893,7 +2924,7 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58">
         <v>540</v>
@@ -2919,14 +2950,14 @@
       <c r="J58">
         <v>1067.0799999999881</v>
       </c>
-      <c r="K58" t="s">
-        <v>14</v>
-      </c>
-      <c r="L58" s="4">
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58">
         <v>2</v>
       </c>
       <c r="M58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -2934,7 +2965,7 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C59">
         <v>540</v>
@@ -2949,7 +2980,7 @@
         <v>800</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H59">
         <v>832.68499999999187</v>
@@ -2960,14 +2991,14 @@
       <c r="J59">
         <v>1311.8350000000021</v>
       </c>
-      <c r="K59" t="s">
-        <v>14</v>
-      </c>
-      <c r="L59" s="4">
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59">
         <v>2</v>
       </c>
       <c r="M59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -2975,7 +3006,7 @@
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C60">
         <v>540</v>
@@ -2990,7 +3021,7 @@
         <v>700</v>
       </c>
       <c r="G60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H60">
         <v>545.19500000000096</v>
@@ -3001,14 +3032,14 @@
       <c r="J60">
         <v>1418.025000000008</v>
       </c>
-      <c r="K60" t="s">
-        <v>14</v>
-      </c>
-      <c r="L60" s="4">
-        <v>2</v>
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
       </c>
       <c r="M60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -3016,7 +3047,7 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C61">
         <v>540</v>
@@ -3031,7 +3062,7 @@
         <v>800</v>
       </c>
       <c r="G61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H61">
         <v>815.84999999999241</v>
@@ -3039,14 +3070,14 @@
       <c r="I61">
         <v>1342.9150000000041</v>
       </c>
-      <c r="K61" t="s">
-        <v>14</v>
+      <c r="K61" t="b">
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -3054,7 +3085,7 @@
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C62">
         <v>540</v>
@@ -3066,10 +3097,10 @@
         <v>2820</v>
       </c>
       <c r="F62" s="3">
-        <v>750</v>
+        <v>830</v>
       </c>
       <c r="G62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H62">
         <v>559.44000000000051</v>
@@ -3080,14 +3111,14 @@
       <c r="J62">
         <v>1310.540000000002</v>
       </c>
-      <c r="K62" t="s">
-        <v>14</v>
+      <c r="K62" t="b">
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -3095,7 +3126,7 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C63">
         <v>540</v>
@@ -3106,11 +3137,11 @@
       <c r="E63">
         <v>2820</v>
       </c>
-      <c r="F63" s="3">
-        <v>750</v>
+      <c r="F63">
+        <v>947.93999999998823</v>
       </c>
       <c r="G63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H63">
         <v>947.93999999998823</v>
@@ -3121,14 +3152,11 @@
       <c r="J63">
         <v>1410.2550000000081</v>
       </c>
-      <c r="K63" t="s">
-        <v>14</v>
+      <c r="K63" t="b">
+        <v>0</v>
       </c>
       <c r="L63">
         <v>3</v>
-      </c>
-      <c r="M63" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -3136,7 +3164,7 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C64">
         <v>540</v>
@@ -3151,7 +3179,7 @@
         <v>786.06499999999335</v>
       </c>
       <c r="G64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H64">
         <v>786.06499999999335</v>
@@ -3159,14 +3187,14 @@
       <c r="I64">
         <v>1162.909999999993</v>
       </c>
-      <c r="K64" t="s">
-        <v>14</v>
+      <c r="K64" t="b">
+        <v>0</v>
       </c>
       <c r="L64">
         <v>3</v>
       </c>
       <c r="M64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -3174,7 +3202,7 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C65">
         <v>540</v>
@@ -3186,10 +3214,10 @@
         <v>2820</v>
       </c>
       <c r="F65">
-        <v>727.78999999999519</v>
+        <v>1006.214999999986</v>
       </c>
       <c r="G65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H65">
         <v>727.78999999999519</v>
@@ -3200,11 +3228,11 @@
       <c r="J65">
         <v>1192.6949999999949</v>
       </c>
-      <c r="K65" t="s">
-        <v>14</v>
+      <c r="K65" t="b">
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -3212,7 +3240,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C66">
         <v>540</v>
@@ -3227,7 +3255,7 @@
         <v>700</v>
       </c>
       <c r="G66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H66">
         <v>717.42999999999552</v>
@@ -3238,14 +3266,14 @@
       <c r="J66">
         <v>1248.3799999999981</v>
       </c>
-      <c r="K66" t="s">
-        <v>14</v>
+      <c r="K66" t="b">
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -3253,7 +3281,7 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67">
         <v>540</v>
@@ -3265,10 +3293,10 @@
         <v>2820</v>
       </c>
       <c r="F67" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="G67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H67">
         <v>709.65999999999576</v>
@@ -3279,14 +3307,14 @@
       <c r="J67">
         <v>1311.8350000000021</v>
       </c>
-      <c r="K67" t="s">
-        <v>14</v>
+      <c r="K67" t="b">
+        <v>0</v>
       </c>
       <c r="L67">
         <v>3</v>
       </c>
       <c r="M67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -3294,7 +3322,7 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C68">
         <v>540</v>
@@ -3305,11 +3333,11 @@
       <c r="E68">
         <v>2820</v>
       </c>
-      <c r="F68" s="3">
-        <v>670</v>
+      <c r="F68">
+        <v>800</v>
       </c>
       <c r="G68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H68">
         <v>718.72499999999548</v>
@@ -3317,14 +3345,14 @@
       <c r="I68">
         <v>1100.74999999999</v>
       </c>
-      <c r="K68" t="s">
-        <v>14</v>
+      <c r="K68" t="b">
+        <v>0</v>
       </c>
       <c r="L68">
         <v>3</v>
       </c>
       <c r="M68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -3332,7 +3360,7 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C69">
         <v>540</v>
@@ -3344,10 +3372,10 @@
         <v>2820</v>
       </c>
       <c r="F69" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H69">
         <v>543.900000000001</v>
@@ -3358,14 +3386,14 @@
       <c r="J69">
         <v>960.88999999998782</v>
       </c>
-      <c r="K69" t="s">
-        <v>14</v>
+      <c r="K69" t="b">
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -3373,7 +3401,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C70">
         <v>540</v>
@@ -3384,11 +3412,11 @@
       <c r="E70">
         <v>2820</v>
       </c>
-      <c r="F70" s="3">
-        <v>690</v>
+      <c r="F70">
+        <v>854.69999999999118</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H70">
         <v>681.16999999999666</v>
@@ -3396,14 +3424,11 @@
       <c r="I70">
         <v>854.69999999999118</v>
       </c>
-      <c r="K70" t="s">
-        <v>14</v>
+      <c r="K70" t="b">
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -3411,7 +3436,7 @@
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C71">
         <v>540</v>
@@ -3426,7 +3451,7 @@
         <v>740</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>543.900000000001</v>
@@ -3437,14 +3462,14 @@
       <c r="J71">
         <v>1067.0799999999881</v>
       </c>
-      <c r="K71" t="s">
-        <v>14</v>
+      <c r="K71" t="b">
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -3452,7 +3477,7 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C72">
         <v>540</v>
@@ -3463,11 +3488,11 @@
       <c r="E72">
         <v>2820</v>
       </c>
-      <c r="F72" s="3">
-        <v>710</v>
+      <c r="F72">
+        <v>824.91499999999212</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>549.08000000000084</v>
@@ -3478,14 +3503,11 @@
       <c r="J72">
         <v>1331.2600000000029</v>
       </c>
-      <c r="K72" t="s">
-        <v>14</v>
+      <c r="K72" t="b">
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>2</v>
-      </c>
-      <c r="M72" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -3493,7 +3515,7 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C73">
         <v>540</v>
@@ -3508,7 +3530,7 @@
         <v>796.42499999999302</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H73">
         <v>549.08000000000084</v>
@@ -3519,14 +3541,14 @@
       <c r="J73">
         <v>1113.699999999991</v>
       </c>
-      <c r="K73" t="s">
-        <v>14</v>
+      <c r="K73" t="b">
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -3534,7 +3556,7 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C74">
         <v>540</v>
@@ -3549,7 +3571,7 @@
         <v>778.29499999999359</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>541.31000000000108</v>
@@ -3560,11 +3582,11 @@
       <c r="J74">
         <v>1033.409999999986</v>
       </c>
-      <c r="K74" t="s">
-        <v>14</v>
+      <c r="K74" t="b">
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -3572,7 +3594,7 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C75">
         <v>540</v>
@@ -3583,23 +3605,23 @@
       <c r="E75">
         <v>2820</v>
       </c>
-      <c r="F75" s="3">
-        <v>670</v>
+      <c r="F75">
+        <v>1100</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H75">
         <v>1108.5199999999909</v>
       </c>
-      <c r="K75" t="s">
-        <v>14</v>
+      <c r="K75" t="b">
+        <v>0</v>
       </c>
       <c r="L75">
         <v>3</v>
       </c>
       <c r="M75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -3607,7 +3629,7 @@
         <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C76">
         <v>540</v>
@@ -3619,22 +3641,22 @@
         <v>2820</v>
       </c>
       <c r="F76" s="3">
-        <v>650</v>
+        <v>960</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>1127.944999999992</v>
       </c>
-      <c r="K76" t="s">
-        <v>14</v>
+      <c r="K76" t="b">
+        <v>0</v>
       </c>
       <c r="L76">
         <v>3</v>
       </c>
       <c r="M76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -3642,7 +3664,7 @@
         <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C77">
         <v>540</v>
@@ -3653,11 +3675,11 @@
       <c r="E77">
         <v>2820</v>
       </c>
-      <c r="F77" s="3">
-        <v>640</v>
+      <c r="F77">
+        <v>756.27999999999429</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H77">
         <v>756.27999999999429</v>
@@ -3665,14 +3687,11 @@
       <c r="I77">
         <v>1396.010000000007</v>
       </c>
-      <c r="K77" t="s">
-        <v>14</v>
+      <c r="K77" t="b">
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>2</v>
-      </c>
-      <c r="M77" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -3680,7 +3699,7 @@
         <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C78">
         <v>540</v>
@@ -3692,22 +3711,22 @@
         <v>2820</v>
       </c>
       <c r="F78" s="3">
-        <v>720</v>
+        <v>860</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>1114.994999999991</v>
       </c>
-      <c r="K78" t="s">
-        <v>14</v>
+      <c r="K78" t="b">
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -3715,7 +3734,7 @@
         <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C79">
         <v>540</v>
@@ -3726,11 +3745,11 @@
       <c r="E79">
         <v>2820</v>
       </c>
-      <c r="F79" s="3">
-        <v>670</v>
+      <c r="F79">
+        <v>915.56499999998925</v>
       </c>
       <c r="G79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H79">
         <v>751.09999999999445</v>
@@ -3741,14 +3760,11 @@
       <c r="J79">
         <v>1306.655000000002</v>
       </c>
-      <c r="K79" t="s">
-        <v>14</v>
+      <c r="K79" t="b">
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>2</v>
-      </c>
-      <c r="M79" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -3756,7 +3772,7 @@
         <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C80">
         <v>540</v>
@@ -3771,7 +3787,7 @@
         <v>738.14999999999486</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H80">
         <v>738.14999999999486</v>
@@ -3779,14 +3795,14 @@
       <c r="I80">
         <v>936.2849999999886</v>
       </c>
-      <c r="K80" t="s">
-        <v>14</v>
+      <c r="K80" t="b">
+        <v>0</v>
       </c>
       <c r="L80">
         <v>3</v>
       </c>
       <c r="M80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -3794,7 +3810,7 @@
         <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C81">
         <v>540</v>
@@ -3806,10 +3822,10 @@
         <v>2820</v>
       </c>
       <c r="F81" s="3">
-        <v>815</v>
+        <v>950</v>
       </c>
       <c r="G81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H81">
         <v>984.1999999999872</v>
@@ -3817,14 +3833,14 @@
       <c r="I81">
         <v>1109.814999999991</v>
       </c>
-      <c r="K81" t="s">
-        <v>14</v>
+      <c r="K81" t="b">
+        <v>0</v>
       </c>
       <c r="L81">
         <v>3</v>
       </c>
       <c r="M81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -3832,7 +3848,7 @@
         <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C82">
         <v>540</v>
@@ -3844,10 +3860,10 @@
         <v>2820</v>
       </c>
       <c r="F82" s="3">
-        <v>815</v>
+        <v>950</v>
       </c>
       <c r="G82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H82">
         <v>984.1999999999872</v>
@@ -3855,14 +3871,14 @@
       <c r="I82">
         <v>1109.814999999991</v>
       </c>
-      <c r="K82" t="s">
-        <v>14</v>
+      <c r="K82" t="b">
+        <v>0</v>
       </c>
       <c r="L82">
         <v>3</v>
       </c>
       <c r="M82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -3870,7 +3886,7 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C83">
         <v>180</v>
@@ -3893,11 +3909,12 @@
       <c r="I83">
         <v>853.40499999999122</v>
       </c>
-      <c r="K83" t="s">
-        <v>14</v>
+      <c r="K83" t="str">
+        <f>IF(L83&lt;3, "True", "False")</f>
+        <v>True</v>
       </c>
       <c r="L83">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -3905,7 +3922,7 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C84">
         <v>180</v>
@@ -3920,7 +3937,7 @@
         <v>600</v>
       </c>
       <c r="G84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H84">
         <v>296.55499999999938</v>
@@ -3928,14 +3945,15 @@
       <c r="I84">
         <v>738.14999999999486</v>
       </c>
-      <c r="K84" t="s">
-        <v>14</v>
+      <c r="K84" t="str">
+        <f t="shared" ref="K84:K92" si="1">IF(L84&lt;3, "True", "False")</f>
+        <v>True</v>
       </c>
       <c r="L84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -3943,7 +3961,7 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C85">
         <v>180</v>
@@ -3955,10 +3973,10 @@
         <v>2280</v>
       </c>
       <c r="F85" s="3">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="G85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H85">
         <v>200.7249999999994</v>
@@ -3969,14 +3987,15 @@
       <c r="J85">
         <v>905.20499999998958</v>
       </c>
-      <c r="K85" t="s">
-        <v>14</v>
+      <c r="K85" t="str">
+        <f t="shared" si="1"/>
+        <v>True</v>
       </c>
       <c r="L85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -3984,7 +4003,7 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C86">
         <v>180</v>
@@ -3999,7 +4018,7 @@
         <v>525</v>
       </c>
       <c r="G86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H86">
         <v>537.42500000000121</v>
@@ -4007,14 +4026,15 @@
       <c r="I86">
         <v>898.72999999998979</v>
       </c>
-      <c r="K86" t="s">
-        <v>14</v>
+      <c r="K86" t="str">
+        <f t="shared" si="1"/>
+        <v>True</v>
       </c>
       <c r="L86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -4022,7 +4042,7 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C87">
         <v>180</v>
@@ -4034,19 +4054,19 @@
         <v>2280</v>
       </c>
       <c r="F87" s="3">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="G87" t="s">
-        <v>18</v>
-      </c>
-      <c r="K87" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="K87" t="b">
+        <v>1</v>
       </c>
       <c r="L87">
         <v>3</v>
       </c>
       <c r="M87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -4054,7 +4074,7 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C88">
         <v>180</v>
@@ -4069,7 +4089,7 @@
         <v>489.51000000000181</v>
       </c>
       <c r="G88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H88">
         <v>313.38999999999959</v>
@@ -4080,11 +4100,14 @@
       <c r="J88">
         <v>567.21000000000026</v>
       </c>
-      <c r="K88" t="s">
-        <v>14</v>
+      <c r="K88" t="b">
+        <v>0</v>
       </c>
       <c r="L88">
         <v>3</v>
+      </c>
+      <c r="M88" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -4092,7 +4115,7 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C89">
         <v>180</v>
@@ -4103,11 +4126,11 @@
       <c r="E89">
         <v>2280</v>
       </c>
-      <c r="F89" s="3">
-        <v>485</v>
-      </c>
-      <c r="G89" t="s">
-        <v>20</v>
+      <c r="F89">
+        <v>500</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="H89">
         <v>572.3900000000001</v>
@@ -4118,14 +4141,15 @@
       <c r="J89">
         <v>830.09499999999196</v>
       </c>
-      <c r="K89" t="s">
-        <v>14</v>
+      <c r="K89" t="str">
+        <f t="shared" si="1"/>
+        <v>False</v>
       </c>
       <c r="L89">
         <v>3</v>
       </c>
       <c r="M89" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -4133,7 +4157,7 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C90">
         <v>180</v>
@@ -4148,7 +4172,7 @@
         <v>460</v>
       </c>
       <c r="G90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H90">
         <v>550.3750000000008</v>
@@ -4156,14 +4180,15 @@
       <c r="I90">
         <v>769.22999999999388</v>
       </c>
-      <c r="K90" t="s">
-        <v>14</v>
+      <c r="K90" t="str">
+        <f t="shared" si="1"/>
+        <v>False</v>
       </c>
       <c r="L90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M90" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -4171,7 +4196,7 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C91">
         <v>180</v>
@@ -4186,7 +4211,7 @@
         <v>574.98</v>
       </c>
       <c r="G91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H91">
         <v>574.98</v>
@@ -4194,8 +4219,8 @@
       <c r="I91">
         <v>731.67499999999507</v>
       </c>
-      <c r="K91" t="s">
-        <v>14</v>
+      <c r="K91" t="b">
+        <v>0</v>
       </c>
       <c r="L91">
         <v>2</v>
@@ -4206,7 +4231,7 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C92">
         <v>180</v>
@@ -4221,7 +4246,7 @@
         <v>574.98</v>
       </c>
       <c r="G92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H92">
         <v>574.98</v>
@@ -4229,8 +4254,9 @@
       <c r="I92">
         <v>731.67499999999507</v>
       </c>
-      <c r="K92" t="s">
-        <v>14</v>
+      <c r="K92" t="str">
+        <f t="shared" si="1"/>
+        <v>True</v>
       </c>
       <c r="L92">
         <v>2</v>
@@ -4241,7 +4267,7 @@
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C93">
         <v>180</v>
@@ -4267,14 +4293,14 @@
       <c r="J93">
         <v>1319.6050000000021</v>
       </c>
-      <c r="K93" t="s">
-        <v>14</v>
+      <c r="K93" t="b">
+        <v>0</v>
       </c>
       <c r="L93">
         <v>2</v>
       </c>
       <c r="M93" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -4282,7 +4308,7 @@
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C94">
         <v>180</v>
@@ -4297,7 +4323,7 @@
         <v>500</v>
       </c>
       <c r="G94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H94">
         <v>606.05999999999904</v>
@@ -4308,14 +4334,14 @@
       <c r="J94">
         <v>985.49499999998704</v>
       </c>
-      <c r="K94" t="s">
-        <v>14</v>
+      <c r="K94" t="b">
+        <v>0</v>
       </c>
       <c r="L94">
         <v>2</v>
       </c>
       <c r="M94" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -4323,7 +4349,7 @@
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C95">
         <v>180</v>
@@ -4338,7 +4364,7 @@
         <v>510.23000000000201</v>
       </c>
       <c r="G95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H95">
         <v>510.23000000000201</v>
@@ -4349,8 +4375,8 @@
       <c r="J95">
         <v>725.19999999999527</v>
       </c>
-      <c r="K95" t="s">
-        <v>14</v>
+      <c r="K95" t="b">
+        <v>0</v>
       </c>
       <c r="L95">
         <v>1</v>
@@ -4361,7 +4387,7 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C96">
         <v>180</v>
@@ -4376,7 +4402,7 @@
         <v>748.50999999999453</v>
       </c>
       <c r="G96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H96">
         <v>748.50999999999453</v>
@@ -4387,8 +4413,8 @@
       <c r="J96">
         <v>1177.1549999999941</v>
       </c>
-      <c r="K96" t="s">
-        <v>14</v>
+      <c r="K96" t="b">
+        <v>0</v>
       </c>
       <c r="L96">
         <v>1</v>
@@ -4399,7 +4425,7 @@
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C97">
         <v>180</v>
@@ -4414,7 +4440,7 @@
         <v>919.44999999998925</v>
       </c>
       <c r="G97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H97">
         <v>919.44999999998925</v>
@@ -4425,8 +4451,8 @@
       <c r="J97">
         <v>1344.2100000000039</v>
       </c>
-      <c r="K97" t="s">
-        <v>14</v>
+      <c r="K97" t="b">
+        <v>0</v>
       </c>
       <c r="L97">
         <v>3</v>
@@ -4437,7 +4463,7 @@
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C98">
         <v>180</v>
@@ -4449,10 +4475,10 @@
         <v>2280</v>
       </c>
       <c r="F98" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="G98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H98">
         <v>552.96500000000071</v>
@@ -4463,14 +4489,14 @@
       <c r="J98">
         <v>1042.4749999999869</v>
       </c>
-      <c r="K98" t="s">
-        <v>14</v>
+      <c r="K98" t="b">
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M98" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
@@ -4478,7 +4504,7 @@
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C99">
         <v>180</v>
@@ -4493,7 +4519,7 @@
         <v>455.84000000000128</v>
       </c>
       <c r="G99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H99">
         <v>455.84000000000128</v>
@@ -4504,11 +4530,11 @@
       <c r="J99">
         <v>1011.394999999986</v>
       </c>
-      <c r="K99" t="s">
-        <v>14</v>
+      <c r="K99" t="b">
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -4516,7 +4542,7 @@
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C100">
         <v>180</v>
@@ -4528,10 +4554,10 @@
         <v>2280</v>
       </c>
       <c r="F100" s="3">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H100">
         <v>694.11999999999625</v>
@@ -4542,14 +4568,14 @@
       <c r="J100">
         <v>994.55999999998676</v>
       </c>
-      <c r="K100" t="s">
-        <v>14</v>
+      <c r="K100" t="b">
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M100" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -4557,7 +4583,7 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C101">
         <v>180</v>
@@ -4572,7 +4598,7 @@
         <v>779.58999999999355</v>
       </c>
       <c r="G101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H101">
         <v>779.58999999999355</v>
@@ -4580,8 +4606,8 @@
       <c r="I101">
         <v>1482.7750000000119</v>
       </c>
-      <c r="K101" t="s">
-        <v>14</v>
+      <c r="K101" t="b">
+        <v>0</v>
       </c>
       <c r="L101">
         <v>3</v>
@@ -4592,7 +4618,7 @@
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C102">
         <v>180</v>
@@ -4604,10 +4630,10 @@
         <v>2280</v>
       </c>
       <c r="F102" s="3">
-        <v>410</v>
+        <v>750</v>
       </c>
       <c r="G102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H102">
         <v>229.21499999999921</v>
@@ -4618,14 +4644,14 @@
       <c r="J102">
         <v>1001.034999999987</v>
       </c>
-      <c r="K102" t="s">
-        <v>14</v>
+      <c r="K102" t="b">
+        <v>0</v>
       </c>
       <c r="L102">
         <v>3</v>
       </c>
       <c r="M102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
@@ -4633,7 +4659,7 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C103">
         <v>180</v>
@@ -4648,7 +4674,7 @@
         <v>789.94999999999322</v>
       </c>
       <c r="G103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H103">
         <v>205.90499999999929</v>
@@ -4659,8 +4685,8 @@
       <c r="J103">
         <v>1174.5649999999939</v>
       </c>
-      <c r="K103" t="s">
-        <v>14</v>
+      <c r="K103" t="b">
+        <v>0</v>
       </c>
       <c r="L103">
         <v>3</v>
@@ -4671,7 +4697,7 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C104">
         <v>180</v>
@@ -4686,7 +4712,7 @@
         <v>472.67500000000149</v>
       </c>
       <c r="G104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H104">
         <v>472.67500000000149</v>
@@ -4694,8 +4720,8 @@
       <c r="I104">
         <v>788.65499999999327</v>
       </c>
-      <c r="K104" t="s">
-        <v>14</v>
+      <c r="K104" t="b">
+        <v>0</v>
       </c>
       <c r="L104">
         <v>1</v>
@@ -4706,7 +4732,7 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C105">
         <v>180</v>
@@ -4721,7 +4747,7 @@
         <v>472.67500000000149</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H105">
         <v>472.67500000000149</v>
@@ -4729,8 +4755,8 @@
       <c r="I105">
         <v>788.65499999999327</v>
       </c>
-      <c r="K105" t="s">
-        <v>14</v>
+      <c r="K105" t="b">
+        <v>0</v>
       </c>
       <c r="L105">
         <v>1</v>
@@ -4741,7 +4767,7 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C106">
         <v>1260</v>
@@ -4761,14 +4787,14 @@
       <c r="H106">
         <v>1328.670000000003</v>
       </c>
-      <c r="K106" t="s">
-        <v>14</v>
+      <c r="K106" t="b">
+        <v>0</v>
       </c>
       <c r="L106">
         <v>3</v>
       </c>
       <c r="M106" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -4776,7 +4802,7 @@
         <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C107">
         <v>1260</v>
@@ -4787,11 +4813,11 @@
       <c r="E107">
         <v>3000</v>
       </c>
-      <c r="F107" s="3">
-        <v>1350</v>
+      <c r="F107">
+        <v>1563.065000000016</v>
       </c>
       <c r="G107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H107">
         <v>1328.670000000003</v>
@@ -4799,14 +4825,11 @@
       <c r="I107">
         <v>1563.065000000016</v>
       </c>
-      <c r="K107" t="s">
-        <v>14</v>
+      <c r="K107" t="b">
+        <v>0</v>
       </c>
       <c r="L107">
         <v>3</v>
-      </c>
-      <c r="M107" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
@@ -4814,7 +4837,7 @@
         <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C108">
         <v>1260</v>
@@ -4826,10 +4849,10 @@
         <v>3000</v>
       </c>
       <c r="F108" s="3">
-        <v>1340</v>
+        <v>1560</v>
       </c>
       <c r="G108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H108">
         <v>1295.0000000000009</v>
@@ -4837,14 +4860,14 @@
       <c r="I108">
         <v>1610.9800000000189</v>
       </c>
-      <c r="K108" t="s">
-        <v>14</v>
+      <c r="K108" t="b">
+        <v>0</v>
       </c>
       <c r="L108">
         <v>3</v>
       </c>
       <c r="M108" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -4852,7 +4875,7 @@
         <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C109">
         <v>1260</v>
@@ -4863,11 +4886,11 @@
       <c r="E109">
         <v>3000</v>
       </c>
-      <c r="F109" s="3">
-        <v>1355</v>
+      <c r="F109">
+        <v>1598.0300000000179</v>
       </c>
       <c r="G109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H109">
         <v>1315.7200000000021</v>
@@ -4875,14 +4898,14 @@
       <c r="I109">
         <v>1598.0300000000179</v>
       </c>
-      <c r="K109" t="s">
-        <v>14</v>
+      <c r="K109" t="b">
+        <v>0</v>
       </c>
       <c r="L109">
         <v>3</v>
       </c>
       <c r="M109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -4890,7 +4913,7 @@
         <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C110">
         <v>1260</v>
@@ -4902,19 +4925,19 @@
         <v>3000</v>
       </c>
       <c r="F110" s="3">
-        <v>1340</v>
+        <v>1560</v>
       </c>
       <c r="G110" t="s">
-        <v>18</v>
-      </c>
-      <c r="K110" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="K110" t="b">
+        <v>0</v>
       </c>
       <c r="L110">
         <v>3</v>
       </c>
       <c r="M110" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -4922,7 +4945,7 @@
         <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C111">
         <v>1260</v>
@@ -4934,10 +4957,10 @@
         <v>3000</v>
       </c>
       <c r="F111" s="3">
-        <v>1315</v>
+        <v>1530</v>
       </c>
       <c r="G111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H111">
         <v>1269.0999999999999</v>
@@ -4945,14 +4968,14 @@
       <c r="I111">
         <v>1508.6750000000129</v>
       </c>
-      <c r="K111" t="s">
-        <v>14</v>
+      <c r="K111" t="b">
+        <v>0</v>
       </c>
       <c r="L111">
         <v>3</v>
       </c>
       <c r="M111" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -4960,7 +4983,7 @@
         <v>13</v>
       </c>
       <c r="B112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C112">
         <v>1260</v>
@@ -4971,11 +4994,11 @@
       <c r="E112">
         <v>3000</v>
       </c>
-      <c r="F112" s="3">
-        <v>1310</v>
+      <c r="F112">
+        <v>1552.7050000000161</v>
       </c>
       <c r="G112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H112">
         <v>1272.9849999999999</v>
@@ -4983,14 +5006,11 @@
       <c r="I112">
         <v>1552.7050000000161</v>
       </c>
-      <c r="K112" t="s">
-        <v>14</v>
+      <c r="K112" t="b">
+        <v>0</v>
       </c>
       <c r="L112">
         <v>3</v>
-      </c>
-      <c r="M112" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -4998,7 +5018,7 @@
         <v>13</v>
       </c>
       <c r="B113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C113">
         <v>1260</v>
@@ -5010,22 +5030,22 @@
         <v>3000</v>
       </c>
       <c r="F113" s="3">
-        <v>1320</v>
+        <v>1550</v>
       </c>
       <c r="G113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H113">
         <v>1274.28</v>
       </c>
-      <c r="K113" t="s">
-        <v>14</v>
+      <c r="K113" t="b">
+        <v>0</v>
       </c>
       <c r="L113">
         <v>3</v>
       </c>
       <c r="M113" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
@@ -5033,7 +5053,7 @@
         <v>13</v>
       </c>
       <c r="B114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C114">
         <v>1260</v>
@@ -5044,11 +5064,11 @@
       <c r="E114">
         <v>3000</v>
       </c>
-      <c r="F114" s="3">
-        <v>1330</v>
+      <c r="F114">
+        <v>1572.1300000000169</v>
       </c>
       <c r="G114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H114">
         <v>1306.655000000002</v>
@@ -5056,14 +5076,14 @@
       <c r="I114">
         <v>1572.1300000000169</v>
       </c>
-      <c r="K114" t="s">
-        <v>14</v>
+      <c r="K114" t="b">
+        <v>0</v>
       </c>
       <c r="L114">
         <v>3</v>
       </c>
       <c r="M114" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
@@ -5071,7 +5091,7 @@
         <v>13</v>
       </c>
       <c r="B115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C115">
         <v>1260</v>
@@ -5083,19 +5103,22 @@
         <v>3000</v>
       </c>
       <c r="F115">
-        <v>1335.1450000000029</v>
+        <v>1560</v>
       </c>
       <c r="G115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H115">
         <v>1335.1450000000029</v>
       </c>
-      <c r="K115" t="s">
-        <v>14</v>
+      <c r="K115" t="b">
+        <v>0</v>
       </c>
       <c r="L115">
         <v>3</v>
+      </c>
+      <c r="M115" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
@@ -5103,7 +5126,7 @@
         <v>13</v>
       </c>
       <c r="B116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C116">
         <v>1260</v>
@@ -5115,19 +5138,19 @@
         <v>3000</v>
       </c>
       <c r="F116" s="3">
-        <v>1340</v>
+        <v>1570</v>
       </c>
       <c r="G116" t="s">
-        <v>24</v>
-      </c>
-      <c r="K116" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="K116" t="b">
+        <v>0</v>
       </c>
       <c r="L116">
         <v>3</v>
       </c>
       <c r="M116" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
@@ -5135,7 +5158,7 @@
         <v>13</v>
       </c>
       <c r="B117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C117">
         <v>1260</v>
@@ -5147,22 +5170,22 @@
         <v>3000</v>
       </c>
       <c r="F117">
-        <v>1313.1300000000019</v>
-      </c>
-      <c r="G117" t="s">
-        <v>25</v>
+        <v>1470</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="H117">
         <v>1313.1300000000019</v>
       </c>
-      <c r="K117" t="s">
-        <v>14</v>
+      <c r="K117" t="b">
+        <v>0</v>
       </c>
       <c r="L117">
         <v>3</v>
       </c>
       <c r="M117" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
@@ -5170,7 +5193,7 @@
         <v>13</v>
       </c>
       <c r="B118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C118">
         <v>1260</v>
@@ -5182,19 +5205,22 @@
         <v>3000</v>
       </c>
       <c r="F118">
-        <v>1310.540000000002</v>
+        <v>1570</v>
       </c>
       <c r="G118" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H118">
         <v>1310.540000000002</v>
       </c>
-      <c r="K118" t="s">
-        <v>14</v>
+      <c r="K118" t="b">
+        <v>0</v>
       </c>
       <c r="L118">
         <v>3</v>
+      </c>
+      <c r="M118" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
@@ -5202,7 +5228,7 @@
         <v>13</v>
       </c>
       <c r="B119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C119">
         <v>1260</v>
@@ -5214,22 +5240,22 @@
         <v>3000</v>
       </c>
       <c r="F119" s="3">
-        <v>1390</v>
+        <v>1620</v>
       </c>
       <c r="G119" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H119">
         <v>1336.4400000000039</v>
       </c>
-      <c r="K119" t="s">
-        <v>14</v>
+      <c r="K119" t="b">
+        <v>0</v>
       </c>
       <c r="L119">
         <v>3</v>
       </c>
       <c r="M119" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
@@ -5237,7 +5263,7 @@
         <v>13</v>
       </c>
       <c r="B120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C120">
         <v>1260</v>
@@ -5249,22 +5275,22 @@
         <v>3000</v>
       </c>
       <c r="F120" s="3">
-        <v>1420</v>
-      </c>
-      <c r="G120" t="s">
-        <v>28</v>
+        <v>1600</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="H120">
         <v>1328.670000000003</v>
       </c>
-      <c r="K120" t="s">
-        <v>14</v>
+      <c r="K120" t="b">
+        <v>0</v>
       </c>
       <c r="L120">
         <v>3</v>
       </c>
       <c r="M120" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
@@ -5272,7 +5298,7 @@
         <v>13</v>
       </c>
       <c r="B121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C121">
         <v>1260</v>
@@ -5284,10 +5310,10 @@
         <v>3000</v>
       </c>
       <c r="F121" s="3">
-        <v>1500</v>
+        <v>1530</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H121">
         <v>1318.310000000002</v>
@@ -5295,14 +5321,14 @@
       <c r="I121">
         <v>1612.275000000019</v>
       </c>
-      <c r="K121" t="s">
-        <v>14</v>
+      <c r="K121" t="b">
+        <v>0</v>
       </c>
       <c r="L121">
         <v>3</v>
       </c>
       <c r="M121" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
@@ -5310,7 +5336,7 @@
         <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C122">
         <v>1260</v>
@@ -5322,10 +5348,10 @@
         <v>3000</v>
       </c>
       <c r="F122" s="3">
-        <v>1370</v>
-      </c>
-      <c r="G122" t="s">
-        <v>30</v>
+        <v>1530</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H122">
         <v>1298.8850000000009</v>
@@ -5333,14 +5359,14 @@
       <c r="I122">
         <v>1548.8200000000149</v>
       </c>
-      <c r="K122" t="s">
-        <v>14</v>
+      <c r="K122" t="b">
+        <v>0</v>
       </c>
       <c r="L122">
         <v>3</v>
       </c>
       <c r="M122" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
@@ -5348,7 +5374,7 @@
         <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C123">
         <v>1260</v>
@@ -5360,22 +5386,22 @@
         <v>3000</v>
       </c>
       <c r="F123" s="3">
-        <v>1370</v>
-      </c>
-      <c r="G123" t="s">
-        <v>31</v>
+        <v>1590</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="H123">
         <v>1284.640000000001</v>
       </c>
-      <c r="K123" t="s">
-        <v>14</v>
+      <c r="K123" t="b">
+        <v>0</v>
       </c>
       <c r="L123">
         <v>3</v>
       </c>
       <c r="M123" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
@@ -5383,7 +5409,7 @@
         <v>13</v>
       </c>
       <c r="B124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C124">
         <v>1260</v>
@@ -5395,10 +5421,10 @@
         <v>3000</v>
       </c>
       <c r="F124" s="3">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>1274.28</v>
@@ -5406,14 +5432,14 @@
       <c r="I124">
         <v>1530.6900000000139</v>
       </c>
-      <c r="K124" t="s">
-        <v>14</v>
+      <c r="K124" t="b">
+        <v>0</v>
       </c>
       <c r="L124">
         <v>3</v>
       </c>
       <c r="M124" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
@@ -5421,7 +5447,7 @@
         <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C125">
         <v>1260</v>
@@ -5433,19 +5459,19 @@
         <v>3000</v>
       </c>
       <c r="F125" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G125" t="s">
-        <v>33</v>
-      </c>
-      <c r="K125" t="s">
-        <v>14</v>
+        <v>1570</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K125" t="b">
+        <v>0</v>
       </c>
       <c r="L125">
         <v>3</v>
       </c>
       <c r="M125" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
@@ -5453,7 +5479,7 @@
         <v>13</v>
       </c>
       <c r="B126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C126">
         <v>1260</v>
@@ -5465,16 +5491,16 @@
         <v>3000</v>
       </c>
       <c r="F126">
-        <v>1336.4400000000039</v>
-      </c>
-      <c r="G126" t="s">
-        <v>34</v>
+        <v>1600</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="H126">
         <v>1336.4400000000039</v>
       </c>
-      <c r="K126" t="s">
-        <v>14</v>
+      <c r="K126" t="b">
+        <v>0</v>
       </c>
       <c r="L126">
         <v>3</v>
@@ -5485,7 +5511,7 @@
         <v>13</v>
       </c>
       <c r="B127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C127">
         <v>1260</v>
@@ -5497,19 +5523,19 @@
         <v>3000</v>
       </c>
       <c r="F127" s="3">
-        <v>1330</v>
+        <v>1440</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
-      </c>
-      <c r="K127" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="K127" t="b">
+        <v>0</v>
       </c>
       <c r="L127">
         <v>2</v>
       </c>
       <c r="M127" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
@@ -5517,7 +5543,7 @@
         <v>13</v>
       </c>
       <c r="B128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C128">
         <v>1260</v>
@@ -5529,19 +5555,19 @@
         <v>3000</v>
       </c>
       <c r="F128" s="3">
-        <v>1350</v>
+        <v>1430</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
-      </c>
-      <c r="K128" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="K128" t="b">
+        <v>0</v>
       </c>
       <c r="L128">
         <v>3</v>
       </c>
       <c r="M128" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
@@ -5549,7 +5575,7 @@
         <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C129">
         <v>1260</v>
@@ -5561,10 +5587,10 @@
         <v>3000</v>
       </c>
       <c r="F129" s="3">
-        <v>1350</v>
-      </c>
-      <c r="G129" t="s">
-        <v>37</v>
+        <v>1540</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H129">
         <v>1317.0150000000019</v>
@@ -5572,14 +5598,14 @@
       <c r="I129">
         <v>1626.52000000002</v>
       </c>
-      <c r="K129" t="s">
-        <v>14</v>
+      <c r="K129" t="b">
+        <v>0</v>
       </c>
       <c r="L129">
         <v>3</v>
       </c>
       <c r="M129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
@@ -5587,7 +5613,7 @@
         <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C130">
         <v>1260</v>
@@ -5602,19 +5628,19 @@
         <v>1370</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H130">
         <v>1379.1750000000061</v>
       </c>
-      <c r="K130" t="s">
-        <v>14</v>
+      <c r="K130" t="b">
+        <v>0</v>
       </c>
       <c r="L130">
         <v>2</v>
       </c>
       <c r="M130" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
@@ -5622,7 +5648,7 @@
         <v>13</v>
       </c>
       <c r="B131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C131">
         <v>1260</v>
@@ -5634,10 +5660,10 @@
         <v>3000</v>
       </c>
       <c r="F131" s="3">
-        <v>1350</v>
-      </c>
-      <c r="G131" t="s">
-        <v>39</v>
+        <v>1560</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="H131">
         <v>1323.490000000003</v>
@@ -5645,14 +5671,14 @@
       <c r="I131">
         <v>1600.6200000000181</v>
       </c>
-      <c r="K131" t="s">
-        <v>14</v>
+      <c r="K131" t="b">
+        <v>0</v>
       </c>
       <c r="L131">
         <v>3</v>
       </c>
       <c r="M131" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
@@ -5660,7 +5686,7 @@
         <v>13</v>
       </c>
       <c r="B132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C132">
         <v>1260</v>
@@ -5672,22 +5698,22 @@
         <v>3000</v>
       </c>
       <c r="F132" s="3">
-        <v>1330</v>
-      </c>
-      <c r="G132" t="s">
-        <v>40</v>
+        <v>1475</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="H132">
         <v>1307.9500000000021</v>
       </c>
-      <c r="K132" t="s">
-        <v>14</v>
+      <c r="K132" t="b">
+        <v>0</v>
       </c>
       <c r="L132">
         <v>3</v>
       </c>
       <c r="M132" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
@@ -5695,7 +5721,7 @@
         <v>13</v>
       </c>
       <c r="B133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C133">
         <v>1260</v>
@@ -5707,22 +5733,22 @@
         <v>3000</v>
       </c>
       <c r="F133" s="3">
-        <v>1350</v>
-      </c>
-      <c r="G133" t="s">
-        <v>46</v>
+        <v>1570</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="H133">
         <v>1317.0150000000019</v>
       </c>
-      <c r="K133" t="s">
-        <v>14</v>
+      <c r="K133" t="b">
+        <v>0</v>
       </c>
       <c r="L133">
         <v>3</v>
       </c>
       <c r="M133" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
@@ -5730,7 +5756,7 @@
         <v>13</v>
       </c>
       <c r="B134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C134">
         <v>1260</v>
@@ -5742,22 +5768,22 @@
         <v>3000</v>
       </c>
       <c r="F134" s="3">
-        <v>1350</v>
-      </c>
-      <c r="G134" t="s">
-        <v>50</v>
+        <v>1570</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="H134">
         <v>1301.475000000002</v>
       </c>
-      <c r="K134" t="s">
-        <v>14</v>
+      <c r="K134" t="b">
+        <v>0</v>
       </c>
       <c r="L134">
         <v>3</v>
       </c>
       <c r="M134" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
@@ -5765,7 +5791,7 @@
         <v>13</v>
       </c>
       <c r="B135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C135">
         <v>1260</v>
@@ -5780,16 +5806,16 @@
         <v>1440</v>
       </c>
       <c r="G135" t="s">
-        <v>51</v>
-      </c>
-      <c r="K135" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="K135" t="b">
+        <v>0</v>
       </c>
       <c r="L135">
         <v>3</v>
       </c>
       <c r="M135" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
@@ -5797,7 +5823,7 @@
         <v>13</v>
       </c>
       <c r="B136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C136">
         <v>1260</v>
@@ -5812,7 +5838,7 @@
         <v>1427.090000000009</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H136">
         <v>1427.090000000009</v>
@@ -5820,8 +5846,8 @@
       <c r="I136">
         <v>1564.360000000016</v>
       </c>
-      <c r="K136" t="s">
-        <v>14</v>
+      <c r="K136" t="b">
+        <v>0</v>
       </c>
       <c r="L136">
         <v>3</v>
@@ -5832,7 +5858,7 @@
         <v>13</v>
       </c>
       <c r="B137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C137">
         <v>1260</v>
@@ -5844,10 +5870,10 @@
         <v>3000</v>
       </c>
       <c r="F137" s="3">
-        <v>1420</v>
-      </c>
-      <c r="G137" t="s">
-        <v>52</v>
+        <v>1570</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="H137">
         <v>1269.0999999999999</v>
@@ -5855,14 +5881,14 @@
       <c r="I137">
         <v>1612.275000000019</v>
       </c>
-      <c r="K137" t="s">
-        <v>14</v>
+      <c r="K137" t="b">
+        <v>0</v>
       </c>
       <c r="L137">
         <v>3</v>
       </c>
       <c r="M137" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
@@ -5870,7 +5896,7 @@
         <v>13</v>
       </c>
       <c r="B138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C138">
         <v>1260</v>
@@ -5882,22 +5908,22 @@
         <v>3000</v>
       </c>
       <c r="F138">
-        <v>1331.2600000000029</v>
-      </c>
-      <c r="G138" t="s">
-        <v>53</v>
+        <v>1530</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="H138">
         <v>1331.2600000000029</v>
       </c>
-      <c r="K138" t="s">
-        <v>14</v>
+      <c r="K138" t="b">
+        <v>0</v>
       </c>
       <c r="L138">
         <v>3</v>
       </c>
       <c r="M138" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
@@ -5905,7 +5931,7 @@
         <v>13</v>
       </c>
       <c r="B139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C139">
         <v>1260</v>
@@ -5917,22 +5943,22 @@
         <v>3000</v>
       </c>
       <c r="F139" s="3">
-        <v>1410</v>
-      </c>
-      <c r="G139" t="s">
-        <v>54</v>
+        <v>1570</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="H139">
         <v>1262.6249999999991</v>
       </c>
-      <c r="K139" t="s">
-        <v>14</v>
+      <c r="K139" t="b">
+        <v>0</v>
       </c>
       <c r="L139">
         <v>3</v>
       </c>
       <c r="M139" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
@@ -5940,7 +5966,7 @@
         <v>13</v>
       </c>
       <c r="B140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C140">
         <v>1260</v>
@@ -5952,10 +5978,10 @@
         <v>3000</v>
       </c>
       <c r="F140" s="3">
-        <v>1450</v>
-      </c>
-      <c r="G140" t="s">
-        <v>55</v>
+        <v>1600</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H140">
         <v>1385.650000000006</v>
@@ -5963,14 +5989,14 @@
       <c r="I140">
         <v>1609.685000000019</v>
       </c>
-      <c r="K140" t="s">
-        <v>14</v>
+      <c r="K140" t="b">
+        <v>0</v>
       </c>
       <c r="L140">
         <v>3</v>
       </c>
       <c r="M140" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
@@ -5978,7 +6004,7 @@
         <v>13</v>
       </c>
       <c r="B141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C141">
         <v>1260</v>
@@ -5990,19 +6016,19 @@
         <v>3000</v>
       </c>
       <c r="F141" s="3">
-        <v>1450</v>
-      </c>
-      <c r="G141" t="s">
-        <v>56</v>
-      </c>
-      <c r="K141" t="s">
-        <v>14</v>
+        <v>1570</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K141" t="b">
+        <v>0</v>
       </c>
       <c r="L141">
         <v>3</v>
       </c>
       <c r="M141" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
@@ -6010,7 +6036,7 @@
         <v>13</v>
       </c>
       <c r="B142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C142">
         <v>1260</v>
@@ -6022,22 +6048,22 @@
         <v>3000</v>
       </c>
       <c r="F142" s="3">
-        <v>1370</v>
-      </c>
-      <c r="G142" t="s">
-        <v>57</v>
+        <v>1550</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="H142">
         <v>1271.69</v>
       </c>
-      <c r="K142" t="s">
-        <v>14</v>
+      <c r="K142" t="b">
+        <v>0</v>
       </c>
       <c r="L142">
         <v>3</v>
       </c>
       <c r="M142" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
@@ -6045,7 +6071,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C143">
         <v>1260</v>
@@ -6057,13 +6083,13 @@
         <v>3000</v>
       </c>
       <c r="F143" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G143" t="s">
-        <v>58</v>
-      </c>
-      <c r="K143" t="s">
-        <v>14</v>
+        <v>1470</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K143" t="b">
+        <v>0</v>
       </c>
       <c r="L143">
         <v>3</v>
@@ -6074,7 +6100,7 @@
         <v>13</v>
       </c>
       <c r="B144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C144">
         <v>1260</v>
@@ -6089,13 +6115,13 @@
         <v>1436.1550000000091</v>
       </c>
       <c r="G144" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H144">
         <v>1436.1550000000091</v>
       </c>
-      <c r="K144" t="s">
-        <v>14</v>
+      <c r="K144" t="b">
+        <v>0</v>
       </c>
       <c r="L144">
         <v>3</v>
@@ -6106,7 +6132,7 @@
         <v>13</v>
       </c>
       <c r="B145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C145">
         <v>1260</v>
@@ -6121,16 +6147,16 @@
         <v>1550</v>
       </c>
       <c r="G145" t="s">
-        <v>42</v>
-      </c>
-      <c r="K145" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="K145" t="b">
+        <v>0</v>
       </c>
       <c r="L145">
         <v>3</v>
       </c>
       <c r="M145" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.2">
@@ -6138,7 +6164,7 @@
         <v>13</v>
       </c>
       <c r="B146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C146">
         <v>1260</v>
@@ -6153,16 +6179,16 @@
         <v>1550</v>
       </c>
       <c r="G146" t="s">
-        <v>43</v>
-      </c>
-      <c r="K146" t="s">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="K146" t="b">
+        <v>0</v>
       </c>
       <c r="L146">
         <v>3</v>
       </c>
       <c r="M146" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
@@ -6170,7 +6196,7 @@
         <v>14</v>
       </c>
       <c r="B147" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C147">
         <v>1260</v>
@@ -6196,8 +6222,8 @@
       <c r="J147">
         <v>1730.120000000026</v>
       </c>
-      <c r="K147" t="s">
-        <v>14</v>
+      <c r="K147" t="b">
+        <v>0</v>
       </c>
       <c r="L147">
         <v>3</v>
@@ -6208,7 +6234,7 @@
         <v>14</v>
       </c>
       <c r="B148" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C148">
         <v>1260</v>
@@ -6220,19 +6246,19 @@
         <v>3000</v>
       </c>
       <c r="F148" s="3">
-        <v>1510</v>
+        <v>1600</v>
       </c>
       <c r="G148" t="s">
-        <v>15</v>
-      </c>
-      <c r="K148" t="s">
         <v>14</v>
       </c>
+      <c r="K148" t="b">
+        <v>0</v>
+      </c>
       <c r="L148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M148" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.2">
@@ -6240,7 +6266,7 @@
         <v>14</v>
       </c>
       <c r="B149" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C149">
         <v>1260</v>
@@ -6252,10 +6278,10 @@
         <v>3000</v>
       </c>
       <c r="F149" s="3">
-        <v>1410</v>
+        <v>1450</v>
       </c>
       <c r="G149" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H149">
         <v>1291.1150000000009</v>
@@ -6263,14 +6289,14 @@
       <c r="I149">
         <v>1675.7300000000221</v>
       </c>
-      <c r="K149" t="s">
-        <v>14</v>
+      <c r="K149" t="b">
+        <v>0</v>
       </c>
       <c r="L149">
         <v>3</v>
       </c>
       <c r="M149" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
@@ -6278,7 +6304,7 @@
         <v>14</v>
       </c>
       <c r="B150" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C150">
         <v>1260</v>
@@ -6290,22 +6316,22 @@
         <v>3000</v>
       </c>
       <c r="F150" s="3">
-        <v>1350</v>
+        <v>1400</v>
       </c>
       <c r="G150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H150">
         <v>1576.0150000000169</v>
       </c>
-      <c r="K150" t="s">
-        <v>14</v>
+      <c r="K150" t="b">
+        <v>0</v>
       </c>
       <c r="L150">
         <v>3</v>
       </c>
       <c r="M150" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.2">
@@ -6313,7 +6339,7 @@
         <v>14</v>
       </c>
       <c r="B151" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C151">
         <v>1260</v>
@@ -6325,22 +6351,22 @@
         <v>3000</v>
       </c>
       <c r="F151" s="3">
-        <v>1330</v>
+        <v>1565</v>
       </c>
       <c r="G151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H151">
         <v>1711.990000000025</v>
       </c>
-      <c r="K151" t="s">
-        <v>14</v>
+      <c r="K151" t="b">
+        <v>0</v>
       </c>
       <c r="L151">
         <v>3</v>
       </c>
       <c r="M151" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
@@ -6348,7 +6374,7 @@
         <v>14</v>
       </c>
       <c r="B152" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C152">
         <v>1260</v>
@@ -6360,19 +6386,19 @@
         <v>3000</v>
       </c>
       <c r="F152" s="3">
-        <v>1350</v>
+        <v>1630</v>
       </c>
       <c r="G152" t="s">
-        <v>19</v>
-      </c>
-      <c r="K152" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="K152" t="b">
+        <v>0</v>
       </c>
       <c r="L152">
         <v>3</v>
       </c>
       <c r="M152" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
@@ -6380,7 +6406,7 @@
         <v>14</v>
       </c>
       <c r="B153" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C153">
         <v>1260</v>
@@ -6391,11 +6417,11 @@
       <c r="E153">
         <v>3000</v>
       </c>
-      <c r="F153" s="3">
-        <v>1350</v>
+      <c r="F153">
+        <v>1542.345000000015</v>
       </c>
       <c r="G153" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H153">
         <v>1297.5900000000011</v>
@@ -6406,14 +6432,11 @@
       <c r="J153">
         <v>1735.3000000000261</v>
       </c>
-      <c r="K153" t="s">
-        <v>14</v>
+      <c r="K153" t="b">
+        <v>0</v>
       </c>
       <c r="L153">
         <v>3</v>
-      </c>
-      <c r="M153" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -6421,7 +6444,7 @@
         <v>14</v>
       </c>
       <c r="B154" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C154">
         <v>1260</v>
@@ -6433,19 +6456,19 @@
         <v>3000</v>
       </c>
       <c r="F154" s="3">
-        <v>1340</v>
+        <v>1550</v>
       </c>
       <c r="G154" t="s">
-        <v>42</v>
-      </c>
-      <c r="K154" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="K154" t="b">
+        <v>0</v>
       </c>
       <c r="L154">
         <v>3</v>
       </c>
       <c r="M154" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.2">
@@ -6453,7 +6476,7 @@
         <v>14</v>
       </c>
       <c r="B155" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C155">
         <v>1260</v>
@@ -6465,19 +6488,19 @@
         <v>3000</v>
       </c>
       <c r="F155" s="3">
-        <v>1340</v>
+        <v>1550</v>
       </c>
       <c r="G155" t="s">
-        <v>43</v>
-      </c>
-      <c r="K155" t="s">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="K155" t="b">
+        <v>0</v>
       </c>
       <c r="L155">
         <v>3</v>
       </c>
       <c r="M155" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
@@ -6485,7 +6508,7 @@
         <v>15</v>
       </c>
       <c r="B156" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C156">
         <v>1200</v>
@@ -6497,7 +6520,7 @@
         <v>3060</v>
       </c>
       <c r="F156" s="3">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="G156" t="s">
         <v>13</v>
@@ -6511,14 +6534,15 @@
       <c r="J156">
         <v>1807.8200000000299</v>
       </c>
-      <c r="K156" t="s">
-        <v>14</v>
+      <c r="K156" t="str">
+        <f>IF(L156 &lt;3, "True", "False")</f>
+        <v>True</v>
       </c>
       <c r="L156">
         <v>2</v>
       </c>
       <c r="M156" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.2">
@@ -6526,7 +6550,7 @@
         <v>15</v>
       </c>
       <c r="B157" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C157">
         <v>1200</v>
@@ -6541,7 +6565,7 @@
         <v>1490.5450000000119</v>
       </c>
       <c r="G157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H157">
         <v>1219.8899999999969</v>
@@ -6552,8 +6576,9 @@
       <c r="J157">
         <v>1732.710000000026</v>
       </c>
-      <c r="K157" t="s">
-        <v>14</v>
+      <c r="K157" t="str">
+        <f t="shared" ref="K157:K174" si="2">IF(L157 &lt;3, "True", "False")</f>
+        <v>True</v>
       </c>
       <c r="L157">
         <v>2</v>
@@ -6564,7 +6589,7 @@
         <v>15</v>
       </c>
       <c r="B158" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C158">
         <v>1200</v>
@@ -6579,7 +6604,7 @@
         <v>1487.955000000012</v>
       </c>
       <c r="G158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H158">
         <v>1218.5949999999971</v>
@@ -6590,14 +6615,15 @@
       <c r="J158">
         <v>1845.3750000000321</v>
       </c>
-      <c r="K158" t="s">
-        <v>14</v>
+      <c r="K158" t="str">
+        <f t="shared" si="2"/>
+        <v>False</v>
       </c>
       <c r="L158">
         <v>3</v>
       </c>
       <c r="M158" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
@@ -6605,7 +6631,7 @@
         <v>15</v>
       </c>
       <c r="B159" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C159">
         <v>1200</v>
@@ -6620,19 +6646,20 @@
         <v>1494.4300000000119</v>
       </c>
       <c r="G159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H159">
         <v>1494.4300000000119</v>
       </c>
-      <c r="K159" t="s">
-        <v>14</v>
+      <c r="K159" t="str">
+        <f t="shared" si="2"/>
+        <v>False</v>
       </c>
       <c r="L159">
         <v>3</v>
       </c>
       <c r="M159" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
@@ -6640,7 +6667,7 @@
         <v>15</v>
       </c>
       <c r="B160" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C160">
         <v>1200</v>
@@ -6655,7 +6682,7 @@
         <v>1460</v>
       </c>
       <c r="G160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H160">
         <v>1208.234999999996</v>
@@ -6663,14 +6690,15 @@
       <c r="I160">
         <v>1489.2500000000121</v>
       </c>
-      <c r="K160" t="s">
-        <v>14</v>
+      <c r="K160" t="str">
+        <f t="shared" si="2"/>
+        <v>False</v>
       </c>
       <c r="L160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M160" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
@@ -6678,7 +6706,7 @@
         <v>15</v>
       </c>
       <c r="B161" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C161">
         <v>1200</v>
@@ -6690,22 +6718,23 @@
         <v>3060</v>
       </c>
       <c r="F161" s="3">
-        <v>1450</v>
-      </c>
-      <c r="G161" t="s">
-        <v>19</v>
+        <v>1530</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="H161">
         <v>1710.695000000024</v>
       </c>
-      <c r="K161" t="s">
-        <v>14</v>
+      <c r="K161" t="str">
+        <f t="shared" si="2"/>
+        <v>False</v>
       </c>
       <c r="L161">
         <v>3</v>
       </c>
       <c r="M161" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
@@ -6713,7 +6742,7 @@
         <v>15</v>
       </c>
       <c r="B162" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C162">
         <v>1200</v>
@@ -6728,7 +6757,7 @@
         <v>1360</v>
       </c>
       <c r="G162" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H162">
         <v>1212.119999999996</v>
@@ -6736,8 +6765,9 @@
       <c r="I162">
         <v>1405.0750000000071</v>
       </c>
-      <c r="K162" t="s">
-        <v>14</v>
+      <c r="K162" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
       </c>
       <c r="L162">
         <v>2</v>
@@ -6748,7 +6778,7 @@
         <v>15</v>
       </c>
       <c r="B163" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C163">
         <v>1200</v>
@@ -6760,10 +6790,10 @@
         <v>3060</v>
       </c>
       <c r="F163" s="3">
-        <v>1500</v>
+        <v>1590</v>
       </c>
       <c r="G163" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H163">
         <v>1258.7399999999991</v>
@@ -6774,14 +6804,15 @@
       <c r="J163">
         <v>1820.7700000000309</v>
       </c>
-      <c r="K163" t="s">
-        <v>14</v>
+      <c r="K163" t="str">
+        <f t="shared" si="2"/>
+        <v>False</v>
       </c>
       <c r="L163">
         <v>3</v>
       </c>
       <c r="M163" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.2">
@@ -6789,7 +6820,7 @@
         <v>15</v>
       </c>
       <c r="B164" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C164">
         <v>1200</v>
@@ -6801,10 +6832,10 @@
         <v>3060</v>
       </c>
       <c r="F164" s="3">
-        <v>1450</v>
+        <v>1460</v>
       </c>
       <c r="G164" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H164">
         <v>1484.070000000012</v>
@@ -6815,14 +6846,15 @@
       <c r="J164">
         <v>1845.3750000000321</v>
       </c>
-      <c r="K164" t="s">
-        <v>14</v>
+      <c r="K164" t="str">
+        <f t="shared" si="2"/>
+        <v>False</v>
       </c>
       <c r="L164">
         <v>3</v>
       </c>
       <c r="M164" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.2">
@@ -6830,7 +6862,7 @@
         <v>15</v>
       </c>
       <c r="B165" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C165">
         <v>1200</v>
@@ -6844,8 +6876,8 @@
       <c r="F165">
         <v>1486.6600000000119</v>
       </c>
-      <c r="G165" t="s">
-        <v>23</v>
+      <c r="G165" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="H165">
         <v>1256.149999999999</v>
@@ -6856,11 +6888,12 @@
       <c r="J165">
         <v>1673.1400000000219</v>
       </c>
-      <c r="K165" t="s">
-        <v>14</v>
+      <c r="K165" t="str">
+        <f t="shared" si="2"/>
+        <v>False</v>
       </c>
       <c r="L165">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.2">
@@ -6868,7 +6901,7 @@
         <v>15</v>
       </c>
       <c r="B166" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C166">
         <v>1200</v>
@@ -6880,10 +6913,10 @@
         <v>3060</v>
       </c>
       <c r="F166" s="3">
-        <v>1390</v>
+        <v>1590</v>
       </c>
       <c r="G166" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H166">
         <v>1278.165</v>
@@ -6894,14 +6927,15 @@
       <c r="J166">
         <v>1937.320000000037</v>
       </c>
-      <c r="K166" t="s">
-        <v>14</v>
+      <c r="K166" t="str">
+        <f t="shared" si="2"/>
+        <v>False</v>
       </c>
       <c r="L166">
         <v>3</v>
       </c>
       <c r="M166" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
@@ -6909,7 +6943,7 @@
         <v>15</v>
       </c>
       <c r="B167" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C167">
         <v>1200</v>
@@ -6921,10 +6955,10 @@
         <v>3060</v>
       </c>
       <c r="F167" s="3">
-        <v>1500</v>
+        <v>1520</v>
       </c>
       <c r="G167" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H167">
         <v>1240.6099999999981</v>
@@ -6932,14 +6966,15 @@
       <c r="I167">
         <v>1757.3150000000271</v>
       </c>
-      <c r="K167" t="s">
-        <v>14</v>
+      <c r="K167" t="str">
+        <f>IF(L167 &lt;3, "True", "False")</f>
+        <v>True</v>
       </c>
       <c r="L167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M167" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
@@ -6947,7 +6982,7 @@
         <v>15</v>
       </c>
       <c r="B168" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C168">
         <v>1200</v>
@@ -6959,10 +6994,10 @@
         <v>3060</v>
       </c>
       <c r="F168" s="3">
-        <v>1510</v>
+        <v>1665</v>
       </c>
       <c r="G168" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H168">
         <v>1261.329999999999</v>
@@ -6970,14 +7005,15 @@
       <c r="I168">
         <v>1766.3800000000281</v>
       </c>
-      <c r="K168" t="s">
-        <v>14</v>
+      <c r="K168" t="str">
+        <f t="shared" si="2"/>
+        <v>False</v>
       </c>
       <c r="L168">
         <v>3</v>
       </c>
       <c r="M168" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.2">
@@ -6985,7 +7021,7 @@
         <v>15</v>
       </c>
       <c r="B169" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C169">
         <v>1200</v>
@@ -6997,10 +7033,10 @@
         <v>3060</v>
       </c>
       <c r="F169" s="3">
-        <v>1550</v>
+        <v>1665</v>
       </c>
       <c r="G169" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H169">
         <v>1279.46</v>
@@ -7011,14 +7047,15 @@
       <c r="J169">
         <v>1921.7800000000359</v>
       </c>
-      <c r="K169" t="s">
-        <v>14</v>
+      <c r="K169" t="str">
+        <f t="shared" si="2"/>
+        <v>False</v>
       </c>
       <c r="L169">
         <v>3</v>
       </c>
       <c r="M169" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.2">
@@ -7026,7 +7063,7 @@
         <v>15</v>
       </c>
       <c r="B170" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C170">
         <v>1200</v>
@@ -7038,10 +7075,10 @@
         <v>3060</v>
       </c>
       <c r="F170">
-        <v>1476.3000000000111</v>
+        <v>1500</v>
       </c>
       <c r="G170" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H170">
         <v>1243.199999999998</v>
@@ -7052,11 +7089,15 @@
       <c r="J170">
         <v>1756.020000000027</v>
       </c>
-      <c r="K170" t="s">
-        <v>14</v>
+      <c r="K170" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
       </c>
       <c r="L170">
         <v>2</v>
+      </c>
+      <c r="M170" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.2">
@@ -7064,7 +7105,7 @@
         <v>15</v>
       </c>
       <c r="B171" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C171">
         <v>1200</v>
@@ -7076,10 +7117,10 @@
         <v>3060</v>
       </c>
       <c r="F171">
-        <v>1456.87500000001</v>
+        <v>1650</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H171">
         <v>1270.395</v>
@@ -7090,8 +7131,9 @@
       <c r="J171">
         <v>1845.3750000000321</v>
       </c>
-      <c r="K171" t="s">
-        <v>14</v>
+      <c r="K171" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
       </c>
       <c r="L171">
         <v>2</v>
@@ -7102,7 +7144,7 @@
         <v>15</v>
       </c>
       <c r="B172" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C172">
         <v>1200</v>
@@ -7114,10 +7156,10 @@
         <v>3060</v>
       </c>
       <c r="F172">
-        <v>1421.910000000008</v>
+        <v>1560</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H172">
         <v>1271.69</v>
@@ -7128,8 +7170,9 @@
       <c r="J172">
         <v>1569.540000000017</v>
       </c>
-      <c r="K172" t="s">
-        <v>14</v>
+      <c r="K172" t="str">
+        <f t="shared" si="2"/>
+        <v>False</v>
       </c>
       <c r="L172">
         <v>3</v>
@@ -7140,7 +7183,7 @@
         <v>15</v>
       </c>
       <c r="B173" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C173">
         <v>1200</v>
@@ -7151,11 +7194,11 @@
       <c r="E173">
         <v>3060</v>
       </c>
-      <c r="F173" s="3">
-        <v>1500</v>
+      <c r="F173">
+        <v>1502.200000000013</v>
       </c>
       <c r="G173" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H173">
         <v>1214.7099999999971</v>
@@ -7166,14 +7209,11 @@
       <c r="J173">
         <v>1832.4250000000311</v>
       </c>
-      <c r="K173" t="s">
-        <v>14</v>
+      <c r="K173" t="b">
+        <v>0</v>
       </c>
       <c r="L173">
         <v>2</v>
-      </c>
-      <c r="M173" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.2">
@@ -7181,7 +7221,7 @@
         <v>15</v>
       </c>
       <c r="B174" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C174">
         <v>1200</v>
@@ -7192,11 +7232,11 @@
       <c r="E174">
         <v>3060</v>
       </c>
-      <c r="F174" s="3">
-        <v>1500</v>
+      <c r="F174">
+        <v>1502.200000000013</v>
       </c>
       <c r="G174" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H174">
         <v>1214.7099999999971</v>
@@ -7207,18 +7247,16 @@
       <c r="J174">
         <v>1832.4250000000311</v>
       </c>
-      <c r="K174" t="s">
-        <v>14</v>
+      <c r="K174" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
       </c>
       <c r="L174">
         <v>2</v>
       </c>
-      <c r="M174" t="s">
-        <v>62</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K1:K1048576 L79 L71:L74 L65:L67 L62:L63 L2:L60 L88:L89 L85 L102:L103 L93:L100 L169:L174 L163:L166 L156:L158 L153 L147">
+  <conditionalFormatting sqref="K1:K1048576 L2:L60 L62:L63 L65:L67 L71:L74 L79 L85 L88:L89 L93:L100 L102:L103 L147 L153 L156:L158 L163:L166 L169:L174">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="True">
       <formula>NOT(ISERROR(SEARCH("True",K1)))</formula>
     </cfRule>
